--- a/Src/Data_files/metod01.xlsx
+++ b/Src/Data_files/metod01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" tabRatio="624" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="показники" sheetId="1" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Рисунок 2"/>
+        <xdr:cNvPr id="1025" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1611,7 +1611,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Рисунок 3"/>
+        <xdr:cNvPr id="1026" name="Рисунок 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1668,7 +1668,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Рисунок 4"/>
+        <xdr:cNvPr id="1027" name="Рисунок 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1725,7 +1725,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Рисунок 5"/>
+        <xdr:cNvPr id="1028" name="Рисунок 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1782,7 +1782,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Рисунок 6"/>
+        <xdr:cNvPr id="1029" name="Рисунок 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1839,7 +1839,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Рисунок 8"/>
+        <xdr:cNvPr id="1030" name="Рисунок 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1896,7 +1896,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Рисунок 9"/>
+        <xdr:cNvPr id="1031" name="Рисунок 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1953,7 +1953,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2056" name="Рисунок 11"/>
+        <xdr:cNvPr id="1032" name="Рисунок 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2010,7 +2010,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2057" name="Рисунок 12"/>
+        <xdr:cNvPr id="1033" name="Рисунок 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2067,7 +2067,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2058" name="Рисунок 13"/>
+        <xdr:cNvPr id="1034" name="Рисунок 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2124,7 +2124,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2059" name="Рисунок 14"/>
+        <xdr:cNvPr id="1035" name="Рисунок 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2181,7 +2181,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2060" name="Рисунок 16"/>
+        <xdr:cNvPr id="1036" name="Рисунок 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2238,7 +2238,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2061" name="Рисунок 17"/>
+        <xdr:cNvPr id="1037" name="Рисунок 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2295,7 +2295,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2062" name="Рисунок 18"/>
+        <xdr:cNvPr id="1038" name="Рисунок 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2352,7 +2352,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2063" name="Рисунок 19"/>
+        <xdr:cNvPr id="1039" name="Рисунок 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2409,7 +2409,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2064" name="Рисунок 20"/>
+        <xdr:cNvPr id="1040" name="Рисунок 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2466,7 +2466,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2065" name="Рисунок 21"/>
+        <xdr:cNvPr id="1041" name="Рисунок 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2523,7 +2523,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2066" name="Рисунок 22"/>
+        <xdr:cNvPr id="1042" name="Рисунок 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2580,7 +2580,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2067" name="Рисунок 23"/>
+        <xdr:cNvPr id="1043" name="Рисунок 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2637,7 +2637,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2068" name="Рисунок 24"/>
+        <xdr:cNvPr id="1044" name="Рисунок 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2694,7 +2694,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2069" name="Рисунок 26"/>
+        <xdr:cNvPr id="1045" name="Рисунок 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2751,7 +2751,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2070" name="Рисунок 27"/>
+        <xdr:cNvPr id="1046" name="Рисунок 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2808,7 +2808,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2071" name="Рисунок 31"/>
+        <xdr:cNvPr id="1047" name="Рисунок 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2865,7 +2865,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2072" name="Рисунок 33"/>
+        <xdr:cNvPr id="1048" name="Рисунок 33"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2922,7 +2922,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2073" name="Рисунок 34"/>
+        <xdr:cNvPr id="1049" name="Рисунок 34"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2979,7 +2979,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2074" name="Рисунок 35"/>
+        <xdr:cNvPr id="1050" name="Рисунок 35"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3036,7 +3036,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2075" name="Рисунок 36"/>
+        <xdr:cNvPr id="1051" name="Рисунок 36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3093,7 +3093,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2076" name="Рисунок 37"/>
+        <xdr:cNvPr id="1052" name="Рисунок 37"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3150,7 +3150,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2077" name="Рисунок 38"/>
+        <xdr:cNvPr id="1053" name="Рисунок 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3207,7 +3207,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2078" name="Рисунок 39"/>
+        <xdr:cNvPr id="1054" name="Рисунок 39"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3264,7 +3264,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2079" name="Рисунок 40"/>
+        <xdr:cNvPr id="1055" name="Рисунок 40"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3321,7 +3321,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2080" name="Рисунок 44"/>
+        <xdr:cNvPr id="1056" name="Рисунок 44"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3378,7 +3378,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2081" name="Рисунок 46"/>
+        <xdr:cNvPr id="1057" name="Рисунок 46"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3435,7 +3435,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2082" name="Рисунок 47"/>
+        <xdr:cNvPr id="1058" name="Рисунок 47"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3492,7 +3492,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2083" name="Рисунок 48"/>
+        <xdr:cNvPr id="1059" name="Рисунок 48"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3549,7 +3549,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2084" name="Рисунок 41" descr="http://zvt.abok.ru/upload/Form_1_Scr_1.jpg"/>
+        <xdr:cNvPr id="1060" name="Рисунок 41" descr="http://zvt.abok.ru/upload/Form_1_Scr_1.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3595,7 +3595,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2085" name="Рисунок 42" descr="http://zvt.abok.ru/upload/Sc_3.jpg"/>
+        <xdr:cNvPr id="1061" name="Рисунок 42" descr="http://zvt.abok.ru/upload/Sc_3.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3646,7 +3646,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Рисунок 1"/>
+        <xdr:cNvPr id="2049" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3692,7 +3692,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3074" name="Рисунок 2"/>
+        <xdr:cNvPr id="2050" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3738,7 +3738,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3075" name="Рисунок 3"/>
+        <xdr:cNvPr id="2051" name="Рисунок 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3784,7 +3784,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3076" name="Рисунок 4"/>
+        <xdr:cNvPr id="2052" name="Рисунок 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10198,9 +10198,9 @@
   </sheetPr>
   <dimension ref="A1:AP199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T135" sqref="T135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
